--- a/va_facility_data_2025-02-20/Hancock VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Hancock%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Hancock VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Hancock%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R36d66aee2a1c4a28ad7114870cb693e6"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R28a633b52f8f48bab895bc3e5f772f46"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rcb6a6213737548db8dfa0e9cfb817941"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rc5c81a3027eb46a487f157e43e0a780c"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3bc99c939b5742da92864bce5008acc9"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R93c39c5730fd4a10ada1d618736b9067"/>
   </x:sheets>
 </x:workbook>
 </file>
